--- a/NguyenThiNga_Module02-ThietKe/NguyenThiNga_Module02.xlsx
+++ b/NguyenThiNga_Module02-ThietKe/NguyenThiNga_Module02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nga\Nam4\Ki1_Nam4\dam-bao-chat-luong-va-kiem-thu-phan-mem\LAB_Quality-assurance-and-software-testing\NguyenThiNga_Module02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nga\Nam4\Ki1_Nam4\dam-bao-chat-luong-va-kiem-thu-phan-mem\LAB_Quality-assurance-and-software-testing\NguyenThiNga_Module02-ThietKe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC24ECD-96F5-42D8-AEE4-76671481B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987AD678-4F75-48E3-BA85-8A4777828FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bai01" sheetId="1" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2049,6 +2049,84 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2079,70 +2157,37 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2163,33 +2208,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2339,39 +2357,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -3518,8 +3503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4"/>
@@ -3565,7 +3550,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A30" s="189" t="s">
+      <c r="A30" s="169" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="126" t="s">
@@ -3578,7 +3563,7 @@
       <c r="E30" s="126"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="190"/>
+      <c r="A31" s="170"/>
       <c r="B31" s="10" t="s">
         <v>144</v>
       </c>
@@ -3589,32 +3574,32 @@
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="171" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="171"/>
+      <c r="C32" s="197"/>
       <c r="D32" s="177" t="s">
         <v>154</v>
       </c>
       <c r="E32" s="179"/>
     </row>
     <row r="33" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A33" s="192"/>
+      <c r="A33" s="172"/>
       <c r="B33" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="172"/>
+      <c r="C33" s="198"/>
       <c r="D33" s="178"/>
       <c r="E33" s="180"/>
     </row>
     <row r="34" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A34" s="194" t="s">
+      <c r="A34" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="173" t="s">
+      <c r="B34" s="175" t="s">
         <v>147</v>
       </c>
       <c r="C34" s="29">
@@ -3628,8 +3613,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A35" s="189"/>
-      <c r="B35" s="174"/>
+      <c r="A35" s="169"/>
+      <c r="B35" s="176"/>
       <c r="C35" s="10">
         <v>19</v>
       </c>
@@ -3637,8 +3622,8 @@
       <c r="E35" s="188"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="189"/>
-      <c r="B36" s="173" t="s">
+      <c r="A36" s="169"/>
+      <c r="B36" s="175" t="s">
         <v>148</v>
       </c>
       <c r="C36" s="39">
@@ -3650,8 +3635,8 @@
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A37" s="190"/>
-      <c r="B37" s="174"/>
+      <c r="A37" s="170"/>
+      <c r="B37" s="176"/>
       <c r="C37" s="10">
         <v>24</v>
       </c>
@@ -3661,10 +3646,10 @@
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A38" s="191" t="s">
+      <c r="A38" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="171" t="s">
+      <c r="B38" s="197" t="s">
         <v>149</v>
       </c>
       <c r="C38" s="11">
@@ -3678,8 +3663,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
-      <c r="A39" s="193"/>
-      <c r="B39" s="172"/>
+      <c r="A39" s="173"/>
+      <c r="B39" s="198"/>
       <c r="C39" s="21">
         <v>16</v>
       </c>
@@ -3687,8 +3672,8 @@
       <c r="E39" s="184"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
-      <c r="A40" s="193"/>
-      <c r="B40" s="171" t="s">
+      <c r="A40" s="173"/>
+      <c r="B40" s="197" t="s">
         <v>150</v>
       </c>
       <c r="C40" s="11">
@@ -3698,8 +3683,8 @@
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="193"/>
-      <c r="B41" s="172"/>
+      <c r="A41" s="173"/>
+      <c r="B41" s="198"/>
       <c r="C41" s="21">
         <v>60</v>
       </c>
@@ -3707,8 +3692,8 @@
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="193"/>
-      <c r="B42" s="175" t="s">
+      <c r="A42" s="173"/>
+      <c r="B42" s="199" t="s">
         <v>151</v>
       </c>
       <c r="C42" s="11">
@@ -3722,8 +3707,8 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="193"/>
-      <c r="B43" s="176"/>
+      <c r="A43" s="173"/>
+      <c r="B43" s="200"/>
       <c r="C43" s="21">
         <v>120</v>
       </c>
@@ -3731,7 +3716,7 @@
       <c r="E43" s="184"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1">
-      <c r="A44" s="193"/>
+      <c r="A44" s="173"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="41" t="s">
@@ -3740,7 +3725,7 @@
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="192"/>
+      <c r="A45" s="172"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="42" t="s">
@@ -3777,7 +3762,7 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="163" t="s">
+      <c r="A52" s="189" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="132">
@@ -3800,7 +3785,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="163"/>
+      <c r="A53" s="189"/>
       <c r="B53" s="44">
         <v>2</v>
       </c>
@@ -3821,7 +3806,7 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="164"/>
+      <c r="A54" s="190"/>
       <c r="B54" s="46">
         <v>3</v>
       </c>
@@ -3842,7 +3827,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="165" t="s">
+      <c r="A55" s="191" t="s">
         <v>94</v>
       </c>
       <c r="B55" s="48">
@@ -3865,7 +3850,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="166"/>
+      <c r="A56" s="192"/>
       <c r="B56" s="48">
         <v>5</v>
       </c>
@@ -3886,7 +3871,7 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="166"/>
+      <c r="A57" s="192"/>
       <c r="B57" s="48">
         <v>6</v>
       </c>
@@ -3907,7 +3892,7 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="166"/>
+      <c r="A58" s="192"/>
       <c r="B58" s="48">
         <v>7</v>
       </c>
@@ -3928,7 +3913,7 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="166"/>
+      <c r="A59" s="192"/>
       <c r="B59" s="48">
         <v>8</v>
       </c>
@@ -3949,7 +3934,7 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="167"/>
+      <c r="A60" s="193"/>
       <c r="B60" s="48">
         <v>9</v>
       </c>
@@ -3970,7 +3955,7 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="168" t="s">
+      <c r="A61" s="194" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="51">
@@ -3993,7 +3978,7 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="169"/>
+      <c r="A62" s="195"/>
       <c r="B62" s="52">
         <v>11</v>
       </c>
@@ -4014,7 +3999,7 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="169"/>
+      <c r="A63" s="195"/>
       <c r="B63" s="44">
         <v>12</v>
       </c>
@@ -4035,7 +4020,7 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="169"/>
+      <c r="A64" s="195"/>
       <c r="B64" s="46">
         <v>13</v>
       </c>
@@ -4056,7 +4041,7 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="169"/>
+      <c r="A65" s="195"/>
       <c r="B65" s="137">
         <v>14</v>
       </c>
@@ -4077,7 +4062,7 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="169"/>
+      <c r="A66" s="195"/>
       <c r="B66" s="46">
         <v>15</v>
       </c>
@@ -4098,7 +4083,7 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="170"/>
+      <c r="A67" s="196"/>
       <c r="B67" s="44">
         <v>16</v>
       </c>
@@ -4120,7 +4105,7 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="165" t="s">
+      <c r="A68" s="191" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="48">
@@ -4141,7 +4126,7 @@
       <c r="G68" s="48"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="166"/>
+      <c r="A69" s="192"/>
       <c r="B69" s="48">
         <v>18</v>
       </c>
@@ -4161,19 +4146,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A60"/>
     <mergeCell ref="A61:A67"/>
@@ -4183,6 +4155,19 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4232,7 +4217,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.8" customHeight="1">
-      <c r="A23" s="221" t="s">
+      <c r="A23" s="227" t="s">
         <v>167</v>
       </c>
       <c r="B23" s="154" t="s">
@@ -4243,7 +4228,7 @@
       <c r="E23" s="99"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="221"/>
+      <c r="A24" s="227"/>
       <c r="B24" s="21" t="s">
         <v>210</v>
       </c>
@@ -4252,7 +4237,7 @@
       <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" ht="28.8">
-      <c r="A25" s="221"/>
+      <c r="A25" s="227"/>
       <c r="B25" s="22" t="s">
         <v>211</v>
       </c>
@@ -4261,7 +4246,7 @@
       <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="221"/>
+      <c r="A26" s="227"/>
       <c r="B26" s="21" t="s">
         <v>214</v>
       </c>
@@ -4270,7 +4255,7 @@
       <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" ht="28.8">
-      <c r="A27" s="221"/>
+      <c r="A27" s="227"/>
       <c r="B27" s="22" t="s">
         <v>212</v>
       </c>
@@ -4279,7 +4264,7 @@
       <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="221"/>
+      <c r="A28" s="227"/>
       <c r="B28" s="21" t="s">
         <v>209</v>
       </c>
@@ -4297,30 +4282,30 @@
       <c r="E31" s="5"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="238" t="s">
+      <c r="A33" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="238" t="s">
+      <c r="B33" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="229" t="s">
+      <c r="C33" s="235" t="s">
         <v>206</v>
       </c>
-      <c r="D33" s="230"/>
-      <c r="E33" s="231"/>
-      <c r="F33" s="238" t="s">
+      <c r="D33" s="236"/>
+      <c r="E33" s="237"/>
+      <c r="F33" s="244" t="s">
         <v>203</v>
       </c>
-      <c r="G33" s="238" t="s">
+      <c r="G33" s="244" t="s">
         <v>202</v>
       </c>
-      <c r="H33" s="238" t="s">
+      <c r="H33" s="244" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="239"/>
-      <c r="B34" s="239"/>
+      <c r="A34" s="245"/>
+      <c r="B34" s="245"/>
       <c r="C34" s="118" t="s">
         <v>167</v>
       </c>
@@ -4330,12 +4315,12 @@
       <c r="E34" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="F34" s="239"/>
-      <c r="G34" s="239"/>
-      <c r="H34" s="239"/>
+      <c r="F34" s="245"/>
+      <c r="G34" s="245"/>
+      <c r="H34" s="245"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="252" t="s">
+      <c r="A35" s="258" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="17">
@@ -4361,7 +4346,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="253"/>
+      <c r="A36" s="259"/>
       <c r="B36" s="15">
         <v>2</v>
       </c>
@@ -4385,7 +4370,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.8">
-      <c r="A37" s="253"/>
+      <c r="A37" s="259"/>
       <c r="B37" s="17">
         <v>3</v>
       </c>
@@ -4409,7 +4394,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="28.8">
-      <c r="A38" s="253"/>
+      <c r="A38" s="259"/>
       <c r="B38" s="15">
         <v>4</v>
       </c>
@@ -4433,7 +4418,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="28.8">
-      <c r="A39" s="253"/>
+      <c r="A39" s="259"/>
       <c r="B39" s="17">
         <v>5</v>
       </c>
@@ -4457,7 +4442,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="254"/>
+      <c r="A40" s="260"/>
       <c r="B40" s="15">
         <v>6</v>
       </c>
@@ -4538,51 +4523,51 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="216" t="s">
+      <c r="A30" s="222" t="s">
         <v>237</v>
       </c>
       <c r="B30" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="C30" s="256" t="s">
+      <c r="C30" s="262" t="s">
         <v>238</v>
       </c>
       <c r="D30" s="99"/>
       <c r="E30" s="99"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="216"/>
+      <c r="A31" s="222"/>
       <c r="B31" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="256"/>
+      <c r="C31" s="262"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" ht="28.8">
-      <c r="A32" s="216"/>
+      <c r="A32" s="222"/>
       <c r="B32" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C32" s="256"/>
+      <c r="C32" s="262"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:8" ht="28.8">
-      <c r="A33" s="216"/>
+      <c r="A33" s="222"/>
       <c r="B33" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="256"/>
+      <c r="C33" s="262"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:8" ht="43.2">
-      <c r="A34" s="216"/>
+      <c r="A34" s="222"/>
       <c r="B34" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C34" s="256"/>
+      <c r="C34" s="262"/>
       <c r="D34" s="21"/>
       <c r="E34" s="22"/>
     </row>
@@ -4615,10 +4600,10 @@
       <c r="F39" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="G39" s="238" t="s">
+      <c r="G39" s="244" t="s">
         <v>202</v>
       </c>
-      <c r="H39" s="238" t="s">
+      <c r="H39" s="244" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4635,11 +4620,11 @@
         <v>242</v>
       </c>
       <c r="F40" s="93"/>
-      <c r="G40" s="239"/>
-      <c r="H40" s="239"/>
+      <c r="G40" s="245"/>
+      <c r="H40" s="245"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="250" t="s">
+      <c r="A41" s="256" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="98">
@@ -4657,87 +4642,87 @@
       <c r="F41" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G41" s="267" t="s">
+      <c r="G41" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="H41" s="267" t="s">
+      <c r="H41" s="17" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="43.2">
-      <c r="A42" s="255"/>
-      <c r="B42" s="272">
+    <row r="42" spans="1:8" ht="28.8">
+      <c r="A42" s="261"/>
+      <c r="B42" s="166">
         <v>2</v>
       </c>
-      <c r="C42" s="272" t="s">
+      <c r="C42" s="166" t="s">
         <v>243</v>
       </c>
-      <c r="D42" s="272" t="s">
+      <c r="D42" s="166" t="s">
         <v>218</v>
       </c>
-      <c r="E42" s="272" t="s">
+      <c r="E42" s="166" t="s">
         <v>244</v>
       </c>
-      <c r="F42" s="272" t="s">
+      <c r="F42" s="166" t="s">
         <v>243</v>
       </c>
-      <c r="G42" s="265" t="s">
+      <c r="G42" s="168" t="s">
         <v>278</v>
       </c>
-      <c r="H42" s="268" t="s">
+      <c r="H42" s="66" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="43.2">
-      <c r="A43" s="255"/>
-      <c r="B43" s="268">
+    <row r="43" spans="1:8" ht="28.8">
+      <c r="A43" s="261"/>
+      <c r="B43" s="66">
         <v>3</v>
       </c>
-      <c r="C43" s="268" t="s">
+      <c r="C43" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="D43" s="268" t="s">
+      <c r="D43" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="E43" s="268" t="s">
+      <c r="E43" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="F43" s="268" t="s">
+      <c r="F43" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="G43" s="264" t="s">
+      <c r="G43" s="167" t="s">
         <v>279</v>
       </c>
-      <c r="H43" s="264" t="s">
+      <c r="H43" s="167" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="43.2">
-      <c r="A44" s="255"/>
-      <c r="B44" s="272">
+    <row r="44" spans="1:8" ht="28.8">
+      <c r="A44" s="261"/>
+      <c r="B44" s="166">
         <v>4</v>
       </c>
-      <c r="C44" s="272" t="s">
+      <c r="C44" s="166" t="s">
         <v>243</v>
       </c>
-      <c r="D44" s="272" t="s">
+      <c r="D44" s="166" t="s">
         <v>247</v>
       </c>
-      <c r="E44" s="272" t="s">
+      <c r="E44" s="166" t="s">
         <v>244</v>
       </c>
-      <c r="F44" s="272" t="s">
+      <c r="F44" s="166" t="s">
         <v>243</v>
       </c>
-      <c r="G44" s="265" t="s">
+      <c r="G44" s="168" t="s">
         <v>280</v>
       </c>
-      <c r="H44" s="265" t="s">
+      <c r="H44" s="168" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="251"/>
+      <c r="A45" s="257"/>
       <c r="B45" s="17">
         <v>5</v>
       </c>
@@ -4753,10 +4738,10 @@
       <c r="F45" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="G45" s="267" t="s">
+      <c r="G45" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="H45" s="271" t="s">
+      <c r="H45" s="162" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4779,10 +4764,10 @@
       <c r="F46" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="G46" s="270" t="s">
+      <c r="G46" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="H46" s="270" t="s">
+      <c r="H46" s="116" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4840,7 +4825,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="220" t="s">
         <v>259</v>
       </c>
       <c r="B18" s="99" t="s">
@@ -4910,15 +4895,15 @@
       <c r="D24" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="E24" s="269" t="s">
+      <c r="E24" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="269" t="s">
+      <c r="F24" s="90" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="250" t="s">
+      <c r="A25" s="256" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="17">
@@ -4930,15 +4915,15 @@
       <c r="D25" s="17">
         <v>9</v>
       </c>
-      <c r="E25" s="267" t="s">
+      <c r="E25" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="F25" s="267" t="s">
+      <c r="F25" s="17" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="255"/>
+      <c r="A26" s="261"/>
       <c r="B26" s="15">
         <v>2</v>
       </c>
@@ -4948,15 +4933,15 @@
       <c r="D26" s="15">
         <v>2147483647</v>
       </c>
-      <c r="E26" s="266">
+      <c r="E26" s="15">
         <v>2147483647</v>
       </c>
-      <c r="F26" s="266" t="s">
+      <c r="F26" s="15" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="255"/>
+      <c r="A27" s="261"/>
       <c r="B27" s="17">
         <v>3</v>
       </c>
@@ -4966,15 +4951,15 @@
       <c r="D27" s="17">
         <v>5</v>
       </c>
-      <c r="E27" s="267" t="s">
+      <c r="E27" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="F27" s="267" t="s">
+      <c r="F27" s="17" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="251"/>
+      <c r="A28" s="257"/>
       <c r="B28" s="15">
         <v>4</v>
       </c>
@@ -4984,10 +4969,10 @@
       <c r="D28" s="15">
         <v>9</v>
       </c>
-      <c r="E28" s="266" t="s">
+      <c r="E28" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F28" s="266" t="s">
+      <c r="F28" s="15" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5096,35 +5081,35 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="234" t="s">
+      <c r="A25" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="238" t="s">
+      <c r="B25" s="244" t="s">
         <v>142</v>
       </c>
       <c r="C25" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="248" t="s">
+      <c r="D25" s="254" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="249"/>
+      <c r="E25" s="255"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="235"/>
-      <c r="B26" s="239"/>
+      <c r="A26" s="241"/>
+      <c r="B26" s="245"/>
       <c r="C26" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="257" t="s">
+      <c r="D26" s="263" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="258" t="s">
+      <c r="E26" s="264" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="250" t="s">
+      <c r="A27" s="256" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="17">
@@ -5141,7 +5126,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="251"/>
+      <c r="A28" s="257"/>
       <c r="B28" s="15">
         <v>2</v>
       </c>
@@ -5156,7 +5141,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="225" t="s">
+      <c r="A29" s="231" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="16">
@@ -5173,7 +5158,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="226"/>
+      <c r="A30" s="232"/>
       <c r="B30" s="18">
         <v>4</v>
       </c>
@@ -5244,7 +5229,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="222" t="s">
         <v>225</v>
       </c>
       <c r="B17" s="99" t="s">
@@ -5255,7 +5240,7 @@
       <c r="E17" s="99"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="216"/>
+      <c r="A18" s="222"/>
       <c r="B18" s="21" t="s">
         <v>227</v>
       </c>
@@ -5264,7 +5249,7 @@
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="216"/>
+      <c r="A19" s="222"/>
       <c r="B19" s="21" t="s">
         <v>228</v>
       </c>
@@ -5273,7 +5258,7 @@
       <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="216"/>
+      <c r="A20" s="222"/>
       <c r="B20" s="21" t="s">
         <v>229</v>
       </c>
@@ -5300,30 +5285,30 @@
       <c r="B23" s="106"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="234" t="s">
+      <c r="A24" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="238" t="s">
+      <c r="B24" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="233" t="s">
+      <c r="C24" s="239" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="259"/>
-      <c r="E24" s="235"/>
-      <c r="F24" s="238" t="s">
+      <c r="D24" s="265"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="244" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="238" t="s">
+      <c r="G24" s="244" t="s">
         <v>202</v>
       </c>
-      <c r="H24" s="238" t="s">
+      <c r="H24" s="244" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="235"/>
-      <c r="B25" s="239"/>
+      <c r="A25" s="241"/>
+      <c r="B25" s="245"/>
       <c r="C25" s="95" t="s">
         <v>230</v>
       </c>
@@ -5333,12 +5318,12 @@
       <c r="E25" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="239"/>
-      <c r="G25" s="239"/>
-      <c r="H25" s="239"/>
+      <c r="F25" s="245"/>
+      <c r="G25" s="245"/>
+      <c r="H25" s="245"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="252" t="s">
+      <c r="A26" s="258" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="15">
@@ -5356,15 +5341,15 @@
       <c r="F26" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="G26" s="266" t="s">
+      <c r="G26" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="H26" s="266" t="s">
+      <c r="H26" s="15" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="253"/>
+      <c r="A27" s="259"/>
       <c r="B27" s="15">
         <v>2</v>
       </c>
@@ -5380,15 +5365,15 @@
       <c r="F27" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="G27" s="266" t="s">
+      <c r="G27" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="H27" s="266" t="s">
+      <c r="H27" s="15" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="253"/>
+      <c r="A28" s="259"/>
       <c r="B28" s="15">
         <v>3</v>
       </c>
@@ -5404,15 +5389,15 @@
       <c r="F28" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G28" s="266" t="s">
+      <c r="G28" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="H28" s="266" t="s">
+      <c r="H28" s="15" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="254"/>
+      <c r="A29" s="260"/>
       <c r="B29" s="15">
         <v>4</v>
       </c>
@@ -5428,23 +5413,23 @@
       <c r="F29" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G29" s="266" t="s">
+      <c r="G29" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="H29" s="266" t="s">
+      <c r="H29" s="15" t="s">
         <v>281</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5558,7 +5543,7 @@
       <c r="A34" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="173" t="s">
+      <c r="B34" s="175" t="s">
         <v>96</v>
       </c>
       <c r="C34" s="29">
@@ -5573,7 +5558,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="35"/>
-      <c r="B35" s="174"/>
+      <c r="B35" s="176"/>
       <c r="C35" s="10">
         <v>64</v>
       </c>
@@ -5738,7 +5723,7 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="195" t="s">
+      <c r="A51" s="210" t="s">
         <v>94</v>
       </c>
       <c r="B51" s="16">
@@ -5761,7 +5746,7 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="196"/>
+      <c r="A52" s="211"/>
       <c r="B52" s="16">
         <v>4</v>
       </c>
@@ -5782,7 +5767,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="197" t="s">
+      <c r="A53" s="212" t="s">
         <v>104</v>
       </c>
       <c r="B53" s="17">
@@ -5805,7 +5790,7 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="198"/>
+      <c r="A54" s="213"/>
       <c r="B54" s="15">
         <v>6</v>
       </c>
@@ -5826,7 +5811,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="198"/>
+      <c r="A55" s="213"/>
       <c r="B55" s="17">
         <v>7</v>
       </c>
@@ -5847,7 +5832,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="198"/>
+      <c r="A56" s="213"/>
       <c r="B56" s="15">
         <v>8</v>
       </c>
@@ -5868,7 +5853,7 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="198"/>
+      <c r="A57" s="213"/>
       <c r="B57" s="17">
         <v>9</v>
       </c>
@@ -5889,7 +5874,7 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="198"/>
+      <c r="A58" s="213"/>
       <c r="B58" s="15">
         <v>10</v>
       </c>
@@ -5910,7 +5895,7 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="198"/>
+      <c r="A59" s="213"/>
       <c r="B59" s="17">
         <v>11</v>
       </c>
@@ -5931,7 +5916,7 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="198"/>
+      <c r="A60" s="213"/>
       <c r="B60" s="15">
         <v>12</v>
       </c>
@@ -5952,7 +5937,7 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="198"/>
+      <c r="A61" s="213"/>
       <c r="B61" s="17">
         <v>13</v>
       </c>
@@ -5973,7 +5958,7 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="198"/>
+      <c r="A62" s="213"/>
       <c r="B62" s="15">
         <v>14</v>
       </c>
@@ -5994,7 +5979,7 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="198"/>
+      <c r="A63" s="213"/>
       <c r="B63" s="17">
         <v>15</v>
       </c>
@@ -6015,7 +6000,7 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="198"/>
+      <c r="A64" s="213"/>
       <c r="B64" s="15">
         <v>16</v>
       </c>
@@ -6036,7 +6021,7 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="198"/>
+      <c r="A65" s="213"/>
       <c r="B65" s="17">
         <v>17</v>
       </c>
@@ -6057,7 +6042,7 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="198"/>
+      <c r="A66" s="213"/>
       <c r="B66" s="15">
         <v>18</v>
       </c>
@@ -6078,7 +6063,7 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="199"/>
+      <c r="A67" s="214"/>
       <c r="B67" s="17">
         <v>19</v>
       </c>
@@ -6099,7 +6084,7 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="195" t="s">
+      <c r="A68" s="210" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="16">
@@ -6122,7 +6107,7 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="200"/>
+      <c r="A69" s="215"/>
       <c r="B69" s="16">
         <v>21</v>
       </c>
@@ -6144,16 +6129,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6214,7 +6199,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="220" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="119" t="s">
@@ -6271,7 +6256,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="210" t="s">
+      <c r="A34" s="216" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="105">
@@ -6291,7 +6276,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="211"/>
+      <c r="A35" s="217"/>
       <c r="B35" s="17">
         <v>2</v>
       </c>
@@ -6309,7 +6294,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="212" t="s">
+      <c r="A36" s="218" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="16">
@@ -6329,7 +6314,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="213"/>
+      <c r="A37" s="219"/>
       <c r="B37" s="18">
         <v>4</v>
       </c>
@@ -6347,7 +6332,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="210" t="s">
+      <c r="A38" s="216" t="s">
         <v>104</v>
       </c>
       <c r="B38" s="15">
@@ -6367,7 +6352,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="211"/>
+      <c r="A39" s="217"/>
       <c r="B39" s="17">
         <v>6</v>
       </c>
@@ -6483,7 +6468,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="221" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="99" t="s">
@@ -6500,7 +6485,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8">
-      <c r="A25" s="216"/>
+      <c r="A25" s="222"/>
       <c r="B25" s="22" t="s">
         <v>91</v>
       </c>
@@ -6509,7 +6494,7 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="216"/>
+      <c r="A26" s="222"/>
       <c r="B26" s="11" t="s">
         <v>75</v>
       </c>
@@ -6543,7 +6528,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="223" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="17">
@@ -6563,7 +6548,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="210"/>
+      <c r="A33" s="216"/>
       <c r="B33" s="15">
         <v>2</v>
       </c>
@@ -6581,7 +6566,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="211"/>
+      <c r="A34" s="217"/>
       <c r="B34" s="17">
         <v>3</v>
       </c>
@@ -6709,10 +6694,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="220" t="s">
+      <c r="B24" s="226" t="s">
         <v>77</v>
       </c>
       <c r="C24" s="123" t="s">
@@ -6720,22 +6705,22 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="216"/>
-      <c r="B25" s="221"/>
+      <c r="A25" s="222"/>
+      <c r="B25" s="227"/>
       <c r="C25" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="216"/>
-      <c r="B26" s="221"/>
+      <c r="A26" s="222"/>
+      <c r="B26" s="227"/>
       <c r="C26" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="216"/>
-      <c r="B27" s="221"/>
+      <c r="A27" s="222"/>
+      <c r="B27" s="227"/>
       <c r="C27" s="21" t="s">
         <v>81</v>
       </c>
@@ -6786,7 +6771,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="218" t="s">
+      <c r="A34" s="224" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="18">
@@ -6804,7 +6789,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="219"/>
+      <c r="A35" s="225"/>
       <c r="B35" s="16">
         <v>3</v>
       </c>
@@ -6822,7 +6807,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="219"/>
+      <c r="A36" s="225"/>
       <c r="B36" s="18">
         <v>4</v>
       </c>
@@ -6840,7 +6825,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="219"/>
+      <c r="A37" s="225"/>
       <c r="B37" s="16">
         <v>5</v>
       </c>
@@ -6987,17 +6972,17 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="204"/>
-      <c r="B28" s="224"/>
+      <c r="B28" s="230"/>
       <c r="C28" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="224"/>
+      <c r="D28" s="230"/>
       <c r="E28" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="228"/>
+      <c r="A29" s="234"/>
       <c r="B29" s="202"/>
       <c r="C29" s="10" t="s">
         <v>126</v>
@@ -7030,7 +7015,7 @@
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="214" t="s">
+      <c r="A32" s="220" t="s">
         <v>120</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -7090,7 +7075,7 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="217" t="s">
+      <c r="A41" s="223" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="105">
@@ -7116,7 +7101,7 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="210"/>
+      <c r="A42" s="216"/>
       <c r="B42" s="17">
         <v>2</v>
       </c>
@@ -7140,7 +7125,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="210"/>
+      <c r="A43" s="216"/>
       <c r="B43" s="15">
         <v>3</v>
       </c>
@@ -7164,7 +7149,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="210"/>
+      <c r="A44" s="216"/>
       <c r="B44" s="17">
         <v>4</v>
       </c>
@@ -7188,7 +7173,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="211"/>
+      <c r="A45" s="217"/>
       <c r="B45" s="15">
         <v>5</v>
       </c>
@@ -7212,7 +7197,7 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="225" t="s">
+      <c r="A46" s="231" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="16">
@@ -7238,7 +7223,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="226"/>
+      <c r="A47" s="232"/>
       <c r="B47" s="18">
         <v>7</v>
       </c>
@@ -7262,7 +7247,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="226"/>
+      <c r="A48" s="232"/>
       <c r="B48" s="16">
         <v>8</v>
       </c>
@@ -7286,7 +7271,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="226"/>
+      <c r="A49" s="232"/>
       <c r="B49" s="18">
         <v>9</v>
       </c>
@@ -7313,7 +7298,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="226"/>
+      <c r="A50" s="232"/>
       <c r="B50" s="16">
         <v>10</v>
       </c>
@@ -7340,7 +7325,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="227"/>
+      <c r="A51" s="233"/>
       <c r="B51" s="18">
         <v>11</v>
       </c>
@@ -7367,7 +7352,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="222" t="s">
+      <c r="A52" s="228" t="s">
         <v>94</v>
       </c>
       <c r="B52" s="17">
@@ -7394,7 +7379,7 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="223"/>
+      <c r="A53" s="229"/>
       <c r="B53" s="17">
         <v>13</v>
       </c>
@@ -7419,7 +7404,7 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="28.8">
-      <c r="A54" s="218" t="s">
+      <c r="A54" s="224" t="s">
         <v>95</v>
       </c>
       <c r="B54" s="18">
@@ -7445,7 +7430,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="219"/>
+      <c r="A55" s="225"/>
       <c r="B55" s="18">
         <v>15</v>
       </c>
@@ -7472,7 +7457,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="219"/>
+      <c r="A56" s="225"/>
       <c r="B56" s="18">
         <v>16</v>
       </c>
@@ -7499,7 +7484,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="219"/>
+      <c r="A57" s="225"/>
       <c r="B57" s="18">
         <v>17</v>
       </c>
@@ -7605,7 +7590,7 @@
       <c r="E24" s="148"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="236" t="s">
+      <c r="A25" s="242" t="s">
         <v>130</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -7616,7 +7601,7 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="237"/>
+      <c r="A26" s="243"/>
       <c r="B26" s="20" t="s">
         <v>179</v>
       </c>
@@ -7663,41 +7648,41 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.4">
-      <c r="A34" s="234" t="s">
+      <c r="A34" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="238" t="s">
+      <c r="B34" s="244" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="238" t="s">
+      <c r="C34" s="244" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="238" t="s">
+      <c r="D34" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="238" t="s">
+      <c r="E34" s="244" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="229" t="s">
+      <c r="F34" s="235" t="s">
         <v>203</v>
       </c>
-      <c r="G34" s="230"/>
-      <c r="H34" s="230"/>
-      <c r="I34" s="229" t="s">
+      <c r="G34" s="236"/>
+      <c r="H34" s="236"/>
+      <c r="I34" s="235" t="s">
         <v>202</v>
       </c>
-      <c r="J34" s="230"/>
-      <c r="K34" s="231"/>
-      <c r="L34" s="232" t="s">
+      <c r="J34" s="236"/>
+      <c r="K34" s="237"/>
+      <c r="L34" s="238" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="235"/>
-      <c r="B35" s="239"/>
-      <c r="C35" s="239"/>
-      <c r="D35" s="239"/>
-      <c r="E35" s="239"/>
+      <c r="A35" s="241"/>
+      <c r="B35" s="245"/>
+      <c r="C35" s="245"/>
+      <c r="D35" s="245"/>
+      <c r="E35" s="245"/>
       <c r="F35" s="151" t="s">
         <v>134</v>
       </c>
@@ -7716,10 +7701,10 @@
       <c r="K35" s="151" t="s">
         <v>136</v>
       </c>
-      <c r="L35" s="233"/>
+      <c r="L35" s="239"/>
     </row>
     <row r="36" spans="1:12" ht="14.4">
-      <c r="A36" s="225" t="s">
+      <c r="A36" s="231" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="16">
@@ -7757,7 +7742,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.4">
-      <c r="A37" s="226"/>
+      <c r="A37" s="232"/>
       <c r="B37" s="17">
         <v>2</v>
       </c>
@@ -7793,7 +7778,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.4">
-      <c r="A38" s="226"/>
+      <c r="A38" s="232"/>
       <c r="B38" s="17">
         <v>3</v>
       </c>
@@ -7829,7 +7814,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="28.8">
-      <c r="A39" s="226"/>
+      <c r="A39" s="232"/>
       <c r="B39" s="159">
         <v>4</v>
       </c>
@@ -7865,7 +7850,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.4">
-      <c r="A40" s="226"/>
+      <c r="A40" s="232"/>
       <c r="B40" s="66">
         <v>5</v>
       </c>
@@ -7901,7 +7886,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="28.8">
-      <c r="A41" s="226"/>
+      <c r="A41" s="232"/>
       <c r="B41" s="54">
         <v>6</v>
       </c>
@@ -7999,10 +7984,10 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="220" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="247" t="s">
+      <c r="B23" s="253" t="s">
         <v>186</v>
       </c>
       <c r="C23" s="119" t="s">
@@ -8017,7 +8002,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="206"/>
-      <c r="B24" s="172"/>
+      <c r="B24" s="198"/>
       <c r="C24" s="21" t="s">
         <v>176</v>
       </c>
@@ -8052,7 +8037,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="240" t="s">
+      <c r="A26" s="246" t="s">
         <v>191</v>
       </c>
       <c r="B26" s="71" t="s">
@@ -8072,7 +8057,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="241"/>
+      <c r="A27" s="247"/>
       <c r="B27" s="73" t="s">
         <v>183</v>
       </c>
@@ -8084,7 +8069,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="241"/>
+      <c r="A28" s="247"/>
       <c r="B28" s="71" t="s">
         <v>187</v>
       </c>
@@ -8093,7 +8078,7 @@
       <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="241"/>
+      <c r="A29" s="247"/>
       <c r="B29" s="73" t="s">
         <v>188</v>
       </c>
@@ -8102,7 +8087,7 @@
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="241"/>
+      <c r="A30" s="247"/>
       <c r="B30" s="71" t="s">
         <v>189</v>
       </c>
@@ -8111,7 +8096,7 @@
       <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="241"/>
+      <c r="A31" s="247"/>
       <c r="B31" s="73" t="s">
         <v>190</v>
       </c>
@@ -8151,7 +8136,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="210" t="s">
+      <c r="A37" s="216" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="112">
@@ -8175,12 +8160,12 @@
         <f xml:space="preserve"> (F37*1484)*1.1</f>
         <v>26647297.600000005</v>
       </c>
-      <c r="H37" s="262" t="s">
+      <c r="H37" s="165" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="210"/>
+      <c r="A38" s="216"/>
       <c r="B38" s="17">
         <v>2</v>
       </c>
@@ -8205,7 +8190,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="210"/>
+      <c r="A39" s="216"/>
       <c r="B39" s="15">
         <v>3</v>
       </c>
@@ -8230,7 +8215,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="210"/>
+      <c r="A40" s="216"/>
       <c r="B40" s="17">
         <v>4</v>
       </c>
@@ -8255,7 +8240,7 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="210"/>
+      <c r="A41" s="216"/>
       <c r="B41" s="15">
         <v>5</v>
       </c>
@@ -8280,7 +8265,7 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="210"/>
+      <c r="A42" s="216"/>
       <c r="B42" s="17">
         <v>6</v>
       </c>
@@ -8305,13 +8290,13 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="43.2">
-      <c r="A43" s="242" t="s">
+      <c r="A43" s="248" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="55">
         <v>7</v>
       </c>
-      <c r="C43" s="260">
+      <c r="C43" s="163">
         <v>-10</v>
       </c>
       <c r="D43" s="55">
@@ -8329,14 +8314,14 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="43.2">
-      <c r="A44" s="243"/>
+      <c r="A44" s="249"/>
       <c r="B44" s="55">
         <v>8</v>
       </c>
       <c r="C44" s="54">
         <v>80</v>
       </c>
-      <c r="D44" s="261">
+      <c r="D44" s="164">
         <v>20</v>
       </c>
       <c r="E44" s="54"/>
@@ -8351,7 +8336,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="244" t="s">
+      <c r="A45" s="250" t="s">
         <v>94</v>
       </c>
       <c r="B45" s="15">
@@ -8372,12 +8357,12 @@
       <c r="G45" s="15">
         <v>0</v>
       </c>
-      <c r="H45" s="263" t="s">
+      <c r="H45" s="166" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="245"/>
+      <c r="A46" s="251"/>
       <c r="B46" s="15">
         <v>10</v>
       </c>
@@ -8401,13 +8386,13 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="43.2">
-      <c r="A47" s="242" t="s">
+      <c r="A47" s="248" t="s">
         <v>95</v>
       </c>
       <c r="B47" s="55">
         <v>11</v>
       </c>
-      <c r="C47" s="260">
+      <c r="C47" s="163">
         <v>-1</v>
       </c>
       <c r="D47" s="55">
@@ -8425,11 +8410,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="43.2">
-      <c r="A48" s="246"/>
+      <c r="A48" s="252"/>
       <c r="B48" s="55">
         <v>12</v>
       </c>
-      <c r="C48" s="261">
+      <c r="C48" s="164">
         <v>20</v>
       </c>
       <c r="D48" s="54">
@@ -8509,7 +8494,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="220" t="s">
         <v>166</v>
       </c>
       <c r="B18" s="99" t="s">
@@ -8563,30 +8548,30 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="234" t="s">
+      <c r="A24" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="238" t="s">
+      <c r="B24" s="244" t="s">
         <v>142</v>
       </c>
       <c r="C24" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="248" t="s">
+      <c r="D24" s="254" t="s">
         <v>203</v>
       </c>
-      <c r="E24" s="249"/>
-      <c r="F24" s="248" t="s">
+      <c r="E24" s="255"/>
+      <c r="F24" s="254" t="s">
         <v>266</v>
       </c>
-      <c r="G24" s="249"/>
-      <c r="H24" s="238" t="s">
+      <c r="G24" s="255"/>
+      <c r="H24" s="244" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="235"/>
-      <c r="B25" s="239"/>
+      <c r="A25" s="241"/>
+      <c r="B25" s="245"/>
       <c r="C25" s="118" t="s">
         <v>166</v>
       </c>
@@ -8602,10 +8587,10 @@
       <c r="G25" s="157" t="s">
         <v>205</v>
       </c>
-      <c r="H25" s="239"/>
+      <c r="H25" s="245"/>
     </row>
     <row r="26" spans="1:8" ht="43.2">
-      <c r="A26" s="250" t="s">
+      <c r="A26" s="256" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="17">
@@ -8631,7 +8616,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.2">
-      <c r="A27" s="251"/>
+      <c r="A27" s="257"/>
       <c r="B27" s="15">
         <v>2</v>
       </c>
@@ -8650,12 +8635,12 @@
       <c r="G27" s="162" t="s">
         <v>269</v>
       </c>
-      <c r="H27" s="263">
+      <c r="H27" s="166">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="43.2">
-      <c r="A28" s="225" t="s">
+      <c r="A28" s="231" t="s">
         <v>94</v>
       </c>
       <c r="B28" s="16">
@@ -8681,7 +8666,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="43.2">
-      <c r="A29" s="226"/>
+      <c r="A29" s="232"/>
       <c r="B29" s="18">
         <v>4</v>
       </c>
